--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>952090.7118364249</v>
+        <v>950203.1303200227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437611.7944052456</v>
+        <v>277019.9511015527</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.3013038024369</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>19.69445846759773</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.790440613649858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>259.2430543087996</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>140.9971593390835</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.54459899127134</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>160.4740936944296</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>348.2558325440064</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>192.4564150008914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>33.42595480754886</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>59.58420545602234</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664933</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>221.244635043072</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.7410395632858</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>24.30197918502513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.89268588222723</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>27.16151528167623</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>54.40320730981892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>99.43636052933117</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>7.206599016890493</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>19.66552680379183</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>146.2787299119466</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>208.8083168084223</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>25.34051740972724</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.74994364686027</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2403.592342129266</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>718.2396502532528</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>718.2396502532528</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>718.2396502532528</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>718.2396502532528</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V4" t="n">
-        <v>718.2396502532528</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.753074569373</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>726.7905576289616</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>726.7905576289616</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>726.7905576289616</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>315.804652839354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.753074569373</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>819.7731851199076</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="C8" t="n">
-        <v>819.7731851199076</v>
+        <v>984.0918349025605</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7731851199076</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>819.7731851199076</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="Y8" t="n">
-        <v>819.7731851199076</v>
+        <v>1739.654191907094</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.841510736975</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="C10" t="n">
-        <v>383.841510736975</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="D10" t="n">
-        <v>383.841510736975</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>87.70657253506027</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W10" t="n">
-        <v>383.841510736975</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X10" t="n">
-        <v>383.841510736975</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.841510736975</v>
+        <v>245.4549451025301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826478</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,7 +5261,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,19 +5364,19 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.860405229007</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>372.9624052601986</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>204.0262223322917</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>204.0262223322917</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.240178049213</v>
+        <v>844.028040127399</v>
       </c>
       <c r="W16" t="n">
-        <v>895.8230080122526</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="X16" t="n">
-        <v>667.8334571142352</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>554.6108700904383</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>738.7219969042604</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>569.7858139763536</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>419.6691745640178</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345002</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617345002</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.3704617345002</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5762,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.959921985247</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>909.4268534755672</v>
+        <v>789.0753054710163</v>
       </c>
       <c r="W22" t="n">
-        <v>620.0096834386067</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="X22" t="n">
-        <v>392.0201325405893</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.0201325405893</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,22 +5975,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>327.180197328635</v>
+        <v>566.6947980556459</v>
       </c>
       <c r="M24" t="n">
-        <v>1095.548343721096</v>
+        <v>887.0301175853477</v>
       </c>
       <c r="N24" t="n">
-        <v>1899.959921985247</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525.6009593486384</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1479.052102069224</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1189.923463282782</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>935.2389750768955</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>935.2389750768955</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>707.2494241788781</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.2494241788781</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>629.3975440735811</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>244.9733843006359</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617345002</v>
+        <v>465.7659634441659</v>
       </c>
       <c r="X28" t="n">
-        <v>709.4529700088207</v>
+        <v>465.7659634441659</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.4529700088207</v>
+        <v>244.9733843006359</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>323.6581146605669</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>323.6581146605669</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572976</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="C31" t="n">
-        <v>583.6915747572976</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="D31" t="n">
-        <v>489.3358006263328</v>
+        <v>300.760630075634</v>
       </c>
       <c r="E31" t="n">
-        <v>397.1835723253106</v>
+        <v>300.760630075634</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899272</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970148</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465078</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540562</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784972</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683257</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061665</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899877</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7072,31 +7072,31 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,10 +7309,10 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>618.7675319762811</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>618.7675319762811</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,13 +7585,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>539.3723184115837</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,16 +7804,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>257.3756913857631</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>300.3665134050631</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>318.1492730982179</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>239.9473834942199</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4.465020345965144</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>40.69292308328336</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.8356641388029</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>121.5412767643419</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.5481401073609</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>167.1443537485703</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>152.7012827944968</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>172.6253811650468</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>201.8820342545974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>20.96809118668115</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>16.90133858061481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.07169897992806</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>53.46784774751379</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997124.1023311579</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997124.1023311579</v>
+        <v>997124.102331158</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="10">
@@ -26317,40 +26317,40 @@
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="G2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="H2" t="n">
-        <v>371477.6067508235</v>
+        <v>371477.6067508234</v>
       </c>
       <c r="I2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="J2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780068</v>
+        <v>386481.0304780067</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="M2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
         <v>389994.8406855348</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758629</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758811</v>
       </c>
       <c r="H4" t="n">
+        <v>787.793690575885</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758811</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477245</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.5809318963</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.5809318964</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>168076.6234415059</v>
       </c>
       <c r="E6" t="n">
-        <v>-246457.549365365</v>
+        <v>-246555.0084913371</v>
       </c>
       <c r="F6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="G6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="H6" t="n">
-        <v>278702.487111531</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="I6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855589</v>
       </c>
       <c r="J6" t="n">
-        <v>102279.2679189382</v>
+        <v>102181.8087929659</v>
       </c>
       <c r="K6" t="n">
-        <v>226737.8004401658</v>
+        <v>226719.3067022316</v>
       </c>
       <c r="L6" t="n">
-        <v>258730.2471327462</v>
+        <v>258730.247132746</v>
       </c>
       <c r="M6" t="n">
         <v>134272.1386997759</v>
       </c>
       <c r="N6" t="n">
-        <v>269073.153933613</v>
+        <v>269073.1539336129</v>
       </c>
       <c r="O6" t="n">
         <v>269073.153933613</v>
       </c>
       <c r="P6" t="n">
-        <v>224910.5486307673</v>
+        <v>224910.5486307674</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.4325378610437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>231.5297090406916</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>136.874751366508</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>154.5411157119954</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>245.2407793169701</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.2873811906659</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>51.6714452555893</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>6.427209076676604</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>214.41963074082</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>101.5396669847894</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>226.9387928805687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,13 +31367,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>126.0475280469431</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32084,13 +32084,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.4103115654726</v>
+        <v>224.0196632465121</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32315,28 +32315,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>141.3402618185954</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,25 +32461,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>295.1683754480584</v>
+        <v>152.4580040397285</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,7 +32707,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>295.1683754480584</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33032,10 +33032,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>24.03312854020652</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>318.6581408737418</v>
       </c>
       <c r="N33" t="n">
-        <v>380.4309478731434</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>87.71167780314289</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33983,7 +33983,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>334.354828182452</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33995,13 +33995,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34214,13 +34214,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>294.5326612602486</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,16 +34229,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34451,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>214.3354758413623</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>449.6185578749247</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>126.0339793024298</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35732,22 +35732,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>660.6763863977577</v>
+        <v>475.2857380787972</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>158.2324794830448</v>
       </c>
       <c r="N18" t="n">
-        <v>489.3409240788156</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>546.4344502803435</v>
+        <v>403.7240788720135</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>179.5948933183438</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>546.4344502803435</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>537.5560127407024</v>
+        <v>97.81334957220155</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>60.72709196759461</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>372.0337908004267</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>642.2291707017234</v>
       </c>
       <c r="N33" t="n">
-        <v>728.4316101333636</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>272.2000390287498</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>682.3554904426722</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>526.8186267838336</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>446.6214413649473</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
